--- a/results/mp/tinybert/corona/confidence/42/topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,27 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -85,6 +70,15 @@
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -94,79 +88,70 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
   </si>
   <si>
     <t>store</t>
@@ -175,19 +160,37 @@
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>and</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="K6">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
       <c r="M6">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3571428571428572</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,295 +935,175 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.7734375</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L13">
+        <v>105</v>
+      </c>
+      <c r="M13">
+        <v>105</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3476394849785407</v>
-      </c>
-      <c r="C10">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>81</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>152</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L11">
-        <v>44</v>
-      </c>
-      <c r="M11">
-        <v>44</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.162962962962963</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>113</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.15</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>21</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L14">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.726027397260274</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1388,47 +1271,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6551724137931034</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>19</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5821596244131455</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5666666666666667</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L27">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5116279069767442</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4571428571428571</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4565217391304348</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3571428571428572</v>
+        <v>0.38</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3421052631578947</v>
+        <v>0.328125</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.03902439024390244</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>394</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.02412280701754386</v>
+        <v>0.03583333333333334</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,137 +1609,293 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>445</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.01320528211284514</v>
+        <v>0.02774694783573807</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>822</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.01078748651564186</v>
+        <v>0.01871958068139274</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="N36">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>917</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.006539235412474849</v>
+        <v>0.01351904956984842</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1975</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>0.01295696436834799</v>
+      </c>
+      <c r="L38">
         <v>56</v>
       </c>
-      <c r="K38">
-        <v>0.006310958118187034</v>
-      </c>
-      <c r="L38">
-        <v>11</v>
-      </c>
       <c r="M38">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1732</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>0.01260504201680672</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>0.96</v>
+      </c>
+      <c r="O39">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.01193467336683417</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>0.9</v>
+      </c>
+      <c r="O40">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <v>0.01141369643572287</v>
+      </c>
+      <c r="L41">
         <v>57</v>
       </c>
-      <c r="K39">
-        <v>0.005744125326370757</v>
-      </c>
-      <c r="L39">
-        <v>11</v>
-      </c>
-      <c r="M39">
-        <v>12</v>
-      </c>
-      <c r="N39">
-        <v>0.92</v>
-      </c>
-      <c r="O39">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1904</v>
+      <c r="M41">
+        <v>59</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>0.83</v>
+      </c>
+      <c r="O42">
+        <v>0.17</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>0.88</v>
+      </c>
+      <c r="O43">
+        <v>0.12</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44">
+        <v>0.009029345372460496</v>
+      </c>
+      <c r="L44">
+        <v>28</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>0.82</v>
+      </c>
+      <c r="O44">
+        <v>0.18</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.008137957760124007</v>
+      </c>
+      <c r="L45">
+        <v>42</v>
+      </c>
+      <c r="M45">
+        <v>46</v>
+      </c>
+      <c r="N45">
+        <v>0.91</v>
+      </c>
+      <c r="O45">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
